--- a/DataStore.Postgres/Common/Step Uids.xlsx
+++ b/DataStore.Postgres/Common/Step Uids.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Millch\Documents\AnalysisOfChangeEngine\Controller.DataStore.Postgres\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Millch\Documents\AnalysisOfChangeEngine\DataStore.Postgres\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91DDEAA-0A02-435D-9E18-A67B07185268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA269E2B-1AB1-4E5C-A044-D0B7D7DB9861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{7745F319-9227-41F0-8813-9F7ACF4D1DDB}"/>
   </bookViews>
@@ -625,13 +625,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03873355-78A1-4B84-A68F-6A45D0D65771}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="95.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.9296875" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.3984375" bestFit="1" customWidth="1"/>
